--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972473.9916628071</v>
+        <v>968027.5688142078</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.07986709</v>
+        <v>29913606.07986708</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938644</v>
+        <v>7134934.85593864</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4772122.175345437</v>
+        <v>4772122.175345438</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H11" t="n">
-        <v>85.58875982746893</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309219</v>
+        <v>57.06632804309216</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>199.5416482780588</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T12" t="n">
         <v>136.0833327936195</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.41345840370406</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>71.3878029683376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>144.7757281174185</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
         <v>274.1005558094662</v>
@@ -1660,22 +1660,22 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.905530192631538</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>167.9708867746732</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>144.7485038212075</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>87.41938484766455</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>198.4049564135714</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>404.3433328749688</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T18" t="n">
         <v>136.0833327936195</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>104.0098890664245</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U19" t="n">
-        <v>135.0889941432232</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2083,13 +2083,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>40.53672092556732</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>59.22707042096923</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T21" t="n">
         <v>136.0833327936195</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H22" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833761</v>
+        <v>34.03933729696306</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U22" t="n">
         <v>277.3329370021073</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>127.3155700864575</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>25.4589427580797</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>84.4917560269438</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T24" t="n">
         <v>136.0833327936195</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>161.25861571917</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>53.40552588938419</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I25" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T25" t="n">
         <v>237.0153716433569</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>145.9581501332335</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>225.8438491257804</v>
       </c>
       <c r="G26" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>274.1005558094662</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T27" t="n">
         <v>136.0833327936195</v>
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>152.6602610658103</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.12931533774885</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
         <v>277.3329370021073</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T29" t="n">
         <v>209.8302460968812</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>214.0476667346178</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>272.9886138814931</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T30" t="n">
         <v>136.0833327936195</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>92.27638471654039</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S31" t="n">
         <v>152.5650864830671</v>
@@ -3006,7 +3006,7 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3329370021073</v>
+        <v>145.6914500664561</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>84.33806816367421</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>72.25200352103667</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T33" t="n">
         <v>136.0833327936195</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6838381111991</v>
+        <v>62.50326220432377</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.626053133425557</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S34" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U34" t="n">
         <v>277.3329370021073</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>49.86977556771204</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>397.5059588748033</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>43.80649973119946</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T36" t="n">
         <v>136.0833327936195</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425557</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5650864830671</v>
+        <v>67.44575583991522</v>
       </c>
       <c r="T37" t="n">
         <v>237.0153716433569</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>52.84608926507392</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>405.2578851081806</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3514,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>46.01139196371093</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T39" t="n">
         <v>136.0833327936195</v>
@@ -3672,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.626053133425557</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S40" t="n">
-        <v>72.04425842935531</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>195.1021818113043</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
         <v>274.1005558094662</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>193.6280066078661</v>
+        <v>156.6944718187507</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3918,7 +3918,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T43" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>151.0089500572028</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>42.70539246340872</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>188.7656385285824</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2657302332918</v>
+        <v>197.1467336416783</v>
       </c>
       <c r="H44" t="n">
         <v>274.1005558094662</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5650864830671</v>
+        <v>86.85043726846284</v>
       </c>
       <c r="T46" t="n">
-        <v>14.92198295235951</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>959.4759468632525</v>
+        <v>1720.515666599275</v>
       </c>
       <c r="C11" t="n">
-        <v>532.5752168765525</v>
+        <v>1720.515666599275</v>
       </c>
       <c r="D11" t="n">
-        <v>532.5752168765525</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="E11" t="n">
-        <v>532.5752168765525</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F11" t="n">
-        <v>532.5752168765525</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G11" t="n">
-        <v>130.2866004792881</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I11" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643855</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037498</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804928</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050664</v>
       </c>
       <c r="M11" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N11" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O11" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P11" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q11" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R11" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2134.022630614365</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.022630614365</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U11" t="n">
-        <v>2134.022630614365</v>
+        <v>1720.515666599275</v>
       </c>
       <c r="V11" t="n">
-        <v>1776.533215740615</v>
+        <v>1720.515666599275</v>
       </c>
       <c r="W11" t="n">
-        <v>1776.533215740615</v>
+        <v>1720.515666599275</v>
       </c>
       <c r="X11" t="n">
-        <v>1364.813216908362</v>
+        <v>1720.515666599275</v>
       </c>
       <c r="Y11" t="n">
-        <v>959.4759468632525</v>
+        <v>1720.515666599275</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D12" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E12" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F12" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G12" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I12" t="n">
-        <v>64.84342863053151</v>
+        <v>64.84342863053155</v>
       </c>
       <c r="J12" t="n">
-        <v>146.0262857709434</v>
+        <v>146.0262857709436</v>
       </c>
       <c r="K12" t="n">
-        <v>297.480878256946</v>
+        <v>297.4808782569462</v>
       </c>
       <c r="L12" t="n">
-        <v>508.6576814496918</v>
+        <v>508.6576814496921</v>
       </c>
       <c r="M12" t="n">
-        <v>758.2365412873038</v>
+        <v>758.2365412873042</v>
       </c>
       <c r="N12" t="n">
-        <v>1016.762415698551</v>
+        <v>1016.762415698552</v>
       </c>
       <c r="O12" t="n">
-        <v>1474.123729607747</v>
+        <v>1249.652366935845</v>
       </c>
       <c r="P12" t="n">
-        <v>1657.896824151927</v>
+        <v>1433.425461480025</v>
       </c>
       <c r="Q12" t="n">
         <v>1772.632401645602</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.5741594859933</v>
+        <v>588.8707434049961</v>
       </c>
       <c r="C13" t="n">
-        <v>631.6015963649093</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="D13" t="n">
-        <v>468.28482349168</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="E13" t="n">
-        <v>423.4227442960193</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="F13" t="n">
-        <v>251.5609700705797</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G13" t="n">
         <v>251.5609700705797</v>
@@ -5196,28 +5196,28 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J13" t="n">
-        <v>87.13587819270244</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>418.3963088502693</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L13" t="n">
-        <v>907.1075935917629</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M13" t="n">
-        <v>1433.102577417459</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N13" t="n">
-        <v>1948.541484080738</v>
+        <v>1484.411782129532</v>
       </c>
       <c r="O13" t="n">
-        <v>2053.684035899825</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
@@ -5226,25 +5226,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2037.559238250754</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.149771944333</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U13" t="n">
-        <v>1518.015492144225</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V13" t="n">
-        <v>1236.304024752254</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.304024752254</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X13" t="n">
-        <v>993.7401281980589</v>
+        <v>815.2135117152541</v>
       </c>
       <c r="Y13" t="n">
-        <v>993.7401281980589</v>
+        <v>588.8707434049961</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>320.7025560166592</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="C14" t="n">
-        <v>320.7025560166592</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="D14" t="n">
-        <v>320.7025560166592</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="E14" t="n">
-        <v>320.7025560166592</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F14" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G14" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037499</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050666</v>
       </c>
       <c r="M14" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N14" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O14" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P14" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R14" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2134.022630614365</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T14" t="n">
-        <v>1922.072887082162</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U14" t="n">
-        <v>1922.072887082162</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V14" t="n">
-        <v>1564.583472208412</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W14" t="n">
-        <v>1557.608189185552</v>
+        <v>1737.631280914713</v>
       </c>
       <c r="X14" t="n">
-        <v>1145.888190353299</v>
+        <v>1737.631280914713</v>
       </c>
       <c r="Y14" t="n">
-        <v>740.5509203081892</v>
+        <v>1567.963718516053</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D15" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E15" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F15" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I15" t="n">
-        <v>88.30073447494335</v>
+        <v>64.84342863053153</v>
       </c>
       <c r="J15" t="n">
-        <v>169.4835916153553</v>
+        <v>370.4976484428457</v>
       </c>
       <c r="K15" t="n">
-        <v>320.9381841013579</v>
+        <v>521.9522409288484</v>
       </c>
       <c r="L15" t="n">
-        <v>532.1149872941037</v>
+        <v>733.1290441215942</v>
       </c>
       <c r="M15" t="n">
-        <v>781.6938471317158</v>
+        <v>982.7079039592063</v>
       </c>
       <c r="N15" t="n">
-        <v>1040.219721542963</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O15" t="n">
-        <v>1273.109672780256</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P15" t="n">
-        <v>1456.882767324437</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q15" t="n">
         <v>1772.632401645602</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.243132414617</v>
+        <v>852.8113942502694</v>
       </c>
       <c r="C16" t="n">
-        <v>843.2705692935331</v>
+        <v>680.8388311291853</v>
       </c>
       <c r="D16" t="n">
-        <v>754.9681603564982</v>
+        <v>517.522058255956</v>
       </c>
       <c r="E16" t="n">
-        <v>588.7599545093517</v>
+        <v>351.3138524088096</v>
       </c>
       <c r="F16" t="n">
-        <v>416.8981802839121</v>
+        <v>179.45207818337</v>
       </c>
       <c r="G16" t="n">
-        <v>251.5609700705797</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H16" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J16" t="n">
         <v>165.0575948409233</v>
@@ -5442,19 +5442,19 @@
         <v>496.3180254984903</v>
       </c>
       <c r="L16" t="n">
-        <v>985.0293102399838</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M16" t="n">
-        <v>1367.005798308133</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N16" t="n">
-        <v>1484.411782129532</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O16" t="n">
-        <v>1589.554333948618</v>
+        <v>1704.237853880161</v>
       </c>
       <c r="P16" t="n">
-        <v>1989.180585230912</v>
+        <v>2103.864105162455</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
@@ -5463,25 +5463,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S16" t="n">
-        <v>2037.559238250754</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.149771944333</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.149771944333</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="V16" t="n">
-        <v>1516.438304552362</v>
+        <v>1516.438304552363</v>
       </c>
       <c r="W16" t="n">
-        <v>1241.585900724875</v>
+        <v>1241.585900724876</v>
       </c>
       <c r="X16" t="n">
-        <v>1241.585900724875</v>
+        <v>999.022004170681</v>
       </c>
       <c r="Y16" t="n">
-        <v>1015.243132414617</v>
+        <v>999.022004170681</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1771.817021921918</v>
+        <v>1302.454267490584</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.407975039523</v>
+        <v>875.5535375038837</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.115354224523</v>
+        <v>452.260916688884</v>
       </c>
       <c r="E17" t="n">
-        <v>1148.115354224523</v>
+        <v>452.260916688884</v>
       </c>
       <c r="F17" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G17" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804921</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M17" t="n">
         <v>1043.801082832444</v>
@@ -5530,37 +5530,37 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P17" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q17" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R17" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X17" t="n">
-        <v>2191.665386213449</v>
+        <v>1722.302631782114</v>
       </c>
       <c r="Y17" t="n">
-        <v>2191.665386213449</v>
+        <v>1722.302631782114</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I18" t="n">
-        <v>64.84342863053151</v>
+        <v>64.84342863053153</v>
       </c>
       <c r="J18" t="n">
-        <v>146.0262857709434</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K18" t="n">
-        <v>297.480878256946</v>
+        <v>521.9522409288486</v>
       </c>
       <c r="L18" t="n">
-        <v>508.6576814496918</v>
+        <v>733.1290441215943</v>
       </c>
       <c r="M18" t="n">
-        <v>758.2365412873038</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N18" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O18" t="n">
-        <v>1249.652366935844</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P18" t="n">
-        <v>1433.425461480025</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q18" t="n">
         <v>1772.632401645602</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>954.6387258917105</v>
+        <v>456.4851353109433</v>
       </c>
       <c r="C19" t="n">
-        <v>782.6661627706264</v>
+        <v>284.5125721898594</v>
       </c>
       <c r="D19" t="n">
-        <v>619.3493898973971</v>
+        <v>179.45207818337</v>
       </c>
       <c r="E19" t="n">
-        <v>453.1411840502507</v>
+        <v>179.45207818337</v>
       </c>
       <c r="F19" t="n">
-        <v>281.2794098248111</v>
+        <v>179.45207818337</v>
       </c>
       <c r="G19" t="n">
-        <v>115.9421996114787</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H19" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J19" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K19" t="n">
-        <v>249.0354163844682</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L19" t="n">
-        <v>361.3578075347967</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M19" t="n">
-        <v>591.2705511630493</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N19" t="n">
-        <v>1106.709457826328</v>
+        <v>1634.928458220693</v>
       </c>
       <c r="O19" t="n">
-        <v>1589.554333948618</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P19" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S19" t="n">
-        <v>2031.876356297799</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T19" t="n">
-        <v>2031.876356297799</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U19" t="n">
-        <v>1895.4228268602</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V19" t="n">
-        <v>1613.711359468229</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.711359468229</v>
+        <v>1115.557768887462</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.147462914034</v>
+        <v>872.9938723332669</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.804694603776</v>
+        <v>646.651104023009</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>894.9344293870112</v>
+        <v>1360.097023089667</v>
       </c>
       <c r="C20" t="n">
-        <v>894.9344293870112</v>
+        <v>933.1962931029668</v>
       </c>
       <c r="D20" t="n">
-        <v>894.9344293870112</v>
+        <v>509.9036722879671</v>
       </c>
       <c r="E20" t="n">
-        <v>468.9574895348687</v>
+        <v>509.9036722879671</v>
       </c>
       <c r="F20" t="n">
-        <v>43.83330772426896</v>
+        <v>84.77949047736729</v>
       </c>
       <c r="G20" t="n">
-        <v>43.83330772426896</v>
+        <v>84.77949047736729</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643838</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804922</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L20" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M20" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N20" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O20" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P20" t="n">
-        <v>1918.854212151229</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q20" t="n">
-        <v>2100.109526681864</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R20" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T20" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U20" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V20" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W20" t="n">
-        <v>2131.840062555903</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="X20" t="n">
-        <v>1720.120063723651</v>
+        <v>1779.945387381197</v>
       </c>
       <c r="Y20" t="n">
-        <v>1314.782793678541</v>
+        <v>1779.945387381197</v>
       </c>
     </row>
     <row r="21">
@@ -5813,34 +5813,34 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D21" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E21" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F21" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G21" t="n">
-        <v>86.61386626702637</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H21" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I21" t="n">
-        <v>88.30073447494334</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0421481579403</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K21" t="n">
-        <v>416.4967406439429</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L21" t="n">
-        <v>627.6735438366886</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M21" t="n">
-        <v>877.2524036743006</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N21" t="n">
         <v>1135.778278085548</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.920286137479</v>
+        <v>889.2150005772039</v>
       </c>
       <c r="C22" t="n">
-        <v>752.947723016395</v>
+        <v>717.2424374561199</v>
       </c>
       <c r="D22" t="n">
-        <v>589.6309501431657</v>
+        <v>717.2424374561199</v>
       </c>
       <c r="E22" t="n">
-        <v>423.4227442960192</v>
+        <v>551.0342316089734</v>
       </c>
       <c r="F22" t="n">
-        <v>251.5609700705797</v>
+        <v>379.1724573835338</v>
       </c>
       <c r="G22" t="n">
-        <v>251.5609700705797</v>
+        <v>213.8352471702014</v>
       </c>
       <c r="H22" t="n">
-        <v>115.9421996114787</v>
+        <v>78.21647671110037</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J22" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K22" t="n">
-        <v>249.0354163844682</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L22" t="n">
-        <v>361.3578075347967</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M22" t="n">
-        <v>893.8509716941068</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N22" t="n">
-        <v>1409.289878357386</v>
+        <v>1948.541484080739</v>
       </c>
       <c r="O22" t="n">
-        <v>1892.134754479676</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P22" t="n">
-        <v>2140.55408260881</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q22" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S22" t="n">
-        <v>2031.876356297799</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T22" t="n">
-        <v>2031.876356297799</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.742076497691</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V22" t="n">
-        <v>1470.030609105719</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.429023159803</v>
+        <v>1115.557768887462</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.429023159803</v>
+        <v>1115.557768887462</v>
       </c>
       <c r="Y22" t="n">
-        <v>1115.086254849545</v>
+        <v>889.2150005772039</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>346.4186598126993</v>
+        <v>869.4145449365332</v>
       </c>
       <c r="C23" t="n">
-        <v>346.4186598126993</v>
+        <v>869.4145449365332</v>
       </c>
       <c r="D23" t="n">
-        <v>346.4186598126993</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="E23" t="n">
-        <v>346.4186598126993</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="F23" t="n">
-        <v>346.4186598126993</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G23" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J23" t="n">
         <v>228.5477172037494</v>
@@ -6007,34 +6007,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R23" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S23" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T23" t="n">
-        <v>1979.715642681245</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U23" t="n">
-        <v>1979.715642681245</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V23" t="n">
-        <v>1979.715642681245</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W23" t="n">
-        <v>1583.324292981592</v>
+        <v>2106.320178105425</v>
       </c>
       <c r="X23" t="n">
-        <v>1171.604294149339</v>
+        <v>1694.600179273173</v>
       </c>
       <c r="Y23" t="n">
-        <v>766.2670241042293</v>
+        <v>1289.262909228063</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>974.9733260640795</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C24" t="n">
-        <v>857.4674225815843</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D24" t="n">
-        <v>753.6274640968693</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E24" t="n">
-        <v>648.9255303698066</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F24" t="n">
-        <v>555.2797000527107</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G24" t="n">
-        <v>462.3230136065748</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H24" t="n">
-        <v>419.5424550638174</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I24" t="n">
-        <v>440.5525759700799</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J24" t="n">
-        <v>521.7354331104918</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K24" t="n">
-        <v>673.1900255964945</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L24" t="n">
-        <v>884.3668287892402</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.945688626852</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N24" t="n">
-        <v>1392.471563038099</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O24" t="n">
-        <v>1625.361514275392</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P24" t="n">
-        <v>1928.15047120657</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2042.886048700245</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R24" t="n">
-        <v>2191.665386213448</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S24" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T24" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U24" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V24" t="n">
-        <v>1603.59194753097</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W24" t="n">
-        <v>1407.070570364187</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X24" t="n">
-        <v>1243.59322413085</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y24" t="n">
-        <v>1103.900335484142</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>450.8022533579869</v>
+        <v>577.2313911757362</v>
       </c>
       <c r="C25" t="n">
-        <v>278.8296902369029</v>
+        <v>405.2588280546522</v>
       </c>
       <c r="D25" t="n">
-        <v>278.8296902369029</v>
+        <v>405.2588280546522</v>
       </c>
       <c r="E25" t="n">
-        <v>278.8296902369029</v>
+        <v>405.2588280546522</v>
       </c>
       <c r="F25" t="n">
-        <v>115.9421996114787</v>
+        <v>233.3970538292126</v>
       </c>
       <c r="G25" t="n">
-        <v>115.9421996114787</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H25" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13587819270242</v>
+        <v>116.4708540187081</v>
       </c>
       <c r="K25" t="n">
-        <v>171.1136997362473</v>
+        <v>447.731284676275</v>
       </c>
       <c r="L25" t="n">
-        <v>659.8249844777408</v>
+        <v>936.4425694177686</v>
       </c>
       <c r="M25" t="n">
-        <v>1192.318148637051</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N25" t="n">
-        <v>1309.72413245845</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O25" t="n">
-        <v>1792.56900858074</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P25" t="n">
-        <v>2140.55408260881</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q25" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.982504260493</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T25" t="n">
-        <v>1946.573037954072</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U25" t="n">
-        <v>1666.438758153964</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V25" t="n">
-        <v>1384.727290761992</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W25" t="n">
-        <v>1109.874886934505</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="X25" t="n">
-        <v>867.3109903803105</v>
+        <v>993.7401281980598</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.9682220700525</v>
+        <v>767.3973598878018</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1721.52476895872</v>
+        <v>974.8045959958525</v>
       </c>
       <c r="C26" t="n">
-        <v>1721.52476895872</v>
+        <v>974.8045959958525</v>
       </c>
       <c r="D26" t="n">
-        <v>1574.092294076666</v>
+        <v>974.8045959958525</v>
       </c>
       <c r="E26" t="n">
-        <v>1148.115354224523</v>
+        <v>548.8276561437101</v>
       </c>
       <c r="F26" t="n">
-        <v>722.9911724139236</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G26" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J26" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M26" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N26" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O26" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P26" t="n">
-        <v>1918.854212151229</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q26" t="n">
-        <v>2100.109526681864</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R26" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S26" t="n">
-        <v>2191.665386213448</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T26" t="n">
-        <v>1979.715642681245</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U26" t="n">
-        <v>1721.52476895872</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V26" t="n">
-        <v>1721.52476895872</v>
+        <v>1776.533215740615</v>
       </c>
       <c r="W26" t="n">
-        <v>1721.52476895872</v>
+        <v>1380.141866040962</v>
       </c>
       <c r="X26" t="n">
-        <v>1721.52476895872</v>
+        <v>1380.141866040962</v>
       </c>
       <c r="Y26" t="n">
-        <v>1721.52476895872</v>
+        <v>974.8045959958525</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>974.9733260640795</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C27" t="n">
-        <v>857.4674225815843</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D27" t="n">
-        <v>753.6274640968693</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E27" t="n">
-        <v>648.9255303698066</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F27" t="n">
-        <v>555.2797000527107</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G27" t="n">
-        <v>462.3230136065748</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H27" t="n">
-        <v>419.5424550638174</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I27" t="n">
-        <v>440.5525759700799</v>
+        <v>64.84342863053153</v>
       </c>
       <c r="J27" t="n">
-        <v>746.2067957823945</v>
+        <v>370.4976484428457</v>
       </c>
       <c r="K27" t="n">
-        <v>897.661388268397</v>
+        <v>521.9522409288484</v>
       </c>
       <c r="L27" t="n">
-        <v>1108.838191461143</v>
+        <v>733.1290441215942</v>
       </c>
       <c r="M27" t="n">
-        <v>1358.417051298755</v>
+        <v>982.7079039592063</v>
       </c>
       <c r="N27" t="n">
-        <v>1616.942925710002</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O27" t="n">
-        <v>1849.832876947295</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P27" t="n">
-        <v>2033.605971491476</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q27" t="n">
-        <v>2148.341548985151</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R27" t="n">
-        <v>2191.665386213448</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S27" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T27" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U27" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V27" t="n">
-        <v>1603.59194753097</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W27" t="n">
-        <v>1407.070570364187</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X27" t="n">
-        <v>1243.59322413085</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y27" t="n">
-        <v>1103.900335484142</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>536.1055717017139</v>
+        <v>456.4851353109429</v>
       </c>
       <c r="C28" t="n">
-        <v>536.1055717017139</v>
+        <v>284.5125721898589</v>
       </c>
       <c r="D28" t="n">
-        <v>536.1055717017139</v>
+        <v>284.5125721898589</v>
       </c>
       <c r="E28" t="n">
-        <v>369.8973658545674</v>
+        <v>284.5125721898589</v>
       </c>
       <c r="F28" t="n">
-        <v>198.0355916291278</v>
+        <v>112.6507979644194</v>
       </c>
       <c r="G28" t="n">
-        <v>43.83330772426896</v>
+        <v>112.6507979644194</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426896</v>
+        <v>112.6507979644194</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J28" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K28" t="n">
-        <v>249.0354163844682</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L28" t="n">
-        <v>522.9070889549455</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M28" t="n">
-        <v>1055.400253114256</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N28" t="n">
-        <v>1570.839159777535</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O28" t="n">
-        <v>2053.684035899825</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P28" t="n">
-        <v>2140.55408260881</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q28" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R28" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S28" t="n">
-        <v>2031.876356297799</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T28" t="n">
-        <v>2031.876356297799</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.742076497691</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V28" t="n">
-        <v>1470.030609105719</v>
+        <v>1390.410172714948</v>
       </c>
       <c r="W28" t="n">
-        <v>1195.178205278232</v>
+        <v>1115.557768887461</v>
       </c>
       <c r="X28" t="n">
-        <v>952.6143087240374</v>
+        <v>872.9938723332665</v>
       </c>
       <c r="Y28" t="n">
-        <v>726.2715404137795</v>
+        <v>646.6511040230085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>895.8582195215687</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="C29" t="n">
         <v>468.9574895348688</v>
@@ -6451,64 +6451,64 @@
         <v>468.9574895348688</v>
       </c>
       <c r="F29" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G29" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H29" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037499</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050666</v>
       </c>
       <c r="M29" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O29" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P29" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q29" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R29" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T29" t="n">
-        <v>1979.715642681245</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U29" t="n">
-        <v>1979.715642681245</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="V29" t="n">
-        <v>1979.715642681245</v>
+        <v>1705.863122703761</v>
       </c>
       <c r="W29" t="n">
-        <v>1583.324292981592</v>
+        <v>1705.863122703761</v>
       </c>
       <c r="X29" t="n">
-        <v>1171.604294149339</v>
+        <v>1294.143123871509</v>
       </c>
       <c r="Y29" t="n">
-        <v>895.8582195215687</v>
+        <v>888.8058538263988</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D30" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E30" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F30" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G30" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H30" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053151</v>
+        <v>64.84342863053153</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709434</v>
+        <v>146.0262857709435</v>
       </c>
       <c r="K30" t="n">
-        <v>297.480878256946</v>
+        <v>521.9522409288484</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496918</v>
+        <v>733.1290441215942</v>
       </c>
       <c r="M30" t="n">
-        <v>758.2365412873038</v>
+        <v>982.7079039592063</v>
       </c>
       <c r="N30" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O30" t="n">
-        <v>1249.652366935844</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P30" t="n">
-        <v>1433.425461480025</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q30" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.3789873482482</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="C31" t="n">
-        <v>209.1705179376014</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="D31" t="n">
-        <v>209.1705179376014</v>
+        <v>682.8592684692885</v>
       </c>
       <c r="E31" t="n">
-        <v>209.1705179376014</v>
+        <v>516.651062622142</v>
       </c>
       <c r="F31" t="n">
-        <v>209.1705179376014</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G31" t="n">
-        <v>43.83330772426897</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H31" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I31" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J31" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K31" t="n">
-        <v>496.3180254984902</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L31" t="n">
-        <v>985.0293102399837</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M31" t="n">
-        <v>1103.986993936472</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N31" t="n">
-        <v>1221.392977757871</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O31" t="n">
-        <v>1589.554333948618</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R31" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S31" t="n">
-        <v>2037.559238250754</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T31" t="n">
-        <v>1798.149771944333</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U31" t="n">
-        <v>1518.015492144225</v>
+        <v>1645.303809116171</v>
       </c>
       <c r="V31" t="n">
-        <v>1236.304024752254</v>
+        <v>1363.5923417242</v>
       </c>
       <c r="W31" t="n">
-        <v>961.4516209247668</v>
+        <v>1088.739937896713</v>
       </c>
       <c r="X31" t="n">
-        <v>718.8877243705718</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="Y31" t="n">
-        <v>492.5449560603139</v>
+        <v>846.1760413425178</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>555.924005553064</v>
+        <v>1795.274036513796</v>
       </c>
       <c r="C32" t="n">
-        <v>129.0232755663641</v>
+        <v>1368.373306527096</v>
       </c>
       <c r="D32" t="n">
-        <v>129.0232755663641</v>
+        <v>945.0806857120967</v>
       </c>
       <c r="E32" t="n">
-        <v>129.0232755663641</v>
+        <v>519.1037458599543</v>
       </c>
       <c r="F32" t="n">
-        <v>129.0232755663641</v>
+        <v>519.1037458599543</v>
       </c>
       <c r="G32" t="n">
-        <v>43.83330772426897</v>
+        <v>116.8151294626899</v>
       </c>
       <c r="H32" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I32" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K32" t="n">
         <v>448.7747784804924</v>
@@ -6718,10 +6718,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
@@ -6730,22 +6730,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T32" t="n">
-        <v>1979.715642681245</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U32" t="n">
-        <v>1721.52476895872</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V32" t="n">
-        <v>1364.03535408497</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W32" t="n">
-        <v>967.6440043853167</v>
+        <v>1795.274036513796</v>
       </c>
       <c r="X32" t="n">
-        <v>555.924005553064</v>
+        <v>1795.274036513796</v>
       </c>
       <c r="Y32" t="n">
-        <v>555.924005553064</v>
+        <v>1795.274036513796</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D33" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E33" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F33" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G33" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H33" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053151</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J33" t="n">
-        <v>265.0421481579403</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K33" t="n">
-        <v>416.4967406439429</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L33" t="n">
-        <v>627.6735438366886</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M33" t="n">
-        <v>877.2524036743006</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N33" t="n">
-        <v>1135.778278085548</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O33" t="n">
-        <v>1368.668229322841</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P33" t="n">
-        <v>1552.441323867022</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q33" t="n">
         <v>1667.176901360697</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>954.6387258917105</v>
+        <v>450.8022533579883</v>
       </c>
       <c r="C34" t="n">
-        <v>782.6661627706264</v>
+        <v>278.8296902369043</v>
       </c>
       <c r="D34" t="n">
-        <v>619.3493898973971</v>
+        <v>278.8296902369043</v>
       </c>
       <c r="E34" t="n">
-        <v>453.1411840502507</v>
+        <v>278.8296902369043</v>
       </c>
       <c r="F34" t="n">
-        <v>281.2794098248111</v>
+        <v>106.9679160114647</v>
       </c>
       <c r="G34" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H34" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I34" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J34" t="n">
-        <v>87.13587819270244</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K34" t="n">
-        <v>171.1136997362473</v>
+        <v>381.6345055669486</v>
       </c>
       <c r="L34" t="n">
-        <v>659.8249844777408</v>
+        <v>870.3457903084421</v>
       </c>
       <c r="M34" t="n">
-        <v>1055.400253114256</v>
+        <v>989.3034740049304</v>
       </c>
       <c r="N34" t="n">
-        <v>1570.839159777535</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O34" t="n">
-        <v>2053.684035899825</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P34" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R34" t="n">
-        <v>2185.982504260493</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S34" t="n">
-        <v>2031.876356297799</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="T34" t="n">
-        <v>2031.876356297799</v>
+        <v>1946.573037954073</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.742076497691</v>
+        <v>1666.438758153965</v>
       </c>
       <c r="V34" t="n">
-        <v>1470.03060910572</v>
+        <v>1384.727290761994</v>
       </c>
       <c r="W34" t="n">
-        <v>1195.178205278233</v>
+        <v>1109.874886934507</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.804694603776</v>
+        <v>867.3109903803119</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.804694603776</v>
+        <v>640.9682220700539</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1721.52476895872</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="C35" t="n">
-        <v>1294.624038972021</v>
+        <v>1764.76465622675</v>
       </c>
       <c r="D35" t="n">
-        <v>871.3314181570208</v>
+        <v>1341.47203541175</v>
       </c>
       <c r="E35" t="n">
-        <v>445.3544783048784</v>
+        <v>915.4950955596074</v>
       </c>
       <c r="F35" t="n">
-        <v>43.83330772426897</v>
+        <v>490.3709137490076</v>
       </c>
       <c r="G35" t="n">
-        <v>43.83330772426897</v>
+        <v>88.08229735174319</v>
       </c>
       <c r="H35" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I35" t="n">
         <v>87.1076127164381</v>
       </c>
       <c r="J35" t="n">
-        <v>228.547717203749</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804919</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050655</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N35" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O35" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P35" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q35" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R35" t="n">
         <v>2191.665386213449</v>
@@ -6967,22 +6967,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T35" t="n">
-        <v>1979.715642681245</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U35" t="n">
-        <v>1721.52476895872</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V35" t="n">
-        <v>1721.52476895872</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W35" t="n">
-        <v>1721.52476895872</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="X35" t="n">
-        <v>1721.52476895872</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="Y35" t="n">
-        <v>1721.52476895872</v>
+        <v>2191.665386213449</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D36" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E36" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F36" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G36" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H36" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053151</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>146.0262857709434</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K36" t="n">
-        <v>297.480878256946</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L36" t="n">
-        <v>508.6576814496918</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M36" t="n">
-        <v>758.2365412873038</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N36" t="n">
-        <v>1016.762415698551</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O36" t="n">
-        <v>1249.652366935844</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P36" t="n">
-        <v>1433.425461480025</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q36" t="n">
         <v>1667.176901360697</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>760.7325176304357</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C37" t="n">
-        <v>588.7599545093517</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D37" t="n">
-        <v>588.7599545093517</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E37" t="n">
         <v>588.7599545093517</v>
       </c>
       <c r="F37" t="n">
-        <v>416.8981802839121</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G37" t="n">
         <v>251.5609700705797</v>
@@ -7092,16 +7092,16 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I37" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J37" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K37" t="n">
-        <v>496.3180254984902</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L37" t="n">
-        <v>985.0293102399837</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M37" t="n">
         <v>1103.986993936472</v>
@@ -7110,37 +7110,37 @@
         <v>1221.392977757871</v>
       </c>
       <c r="O37" t="n">
-        <v>1589.554333948618</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P37" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q37" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R37" t="n">
-        <v>2185.982504260493</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S37" t="n">
-        <v>2031.876356297799</v>
+        <v>2117.85547815957</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.466889991378</v>
+        <v>1878.446011853149</v>
       </c>
       <c r="U37" t="n">
-        <v>1512.33261019127</v>
+        <v>1598.31173205304</v>
       </c>
       <c r="V37" t="n">
-        <v>1230.621142799299</v>
+        <v>1316.600264661069</v>
       </c>
       <c r="W37" t="n">
-        <v>1177.241254652759</v>
+        <v>1316.600264661069</v>
       </c>
       <c r="X37" t="n">
-        <v>1177.241254652759</v>
+        <v>1316.600264661069</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.8984863425014</v>
+        <v>1090.257496350811</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1366.479751876809</v>
+        <v>1302.454267490584</v>
       </c>
       <c r="C38" t="n">
-        <v>939.5790218901091</v>
+        <v>893.1028683914112</v>
       </c>
       <c r="D38" t="n">
-        <v>516.2864010751093</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="E38" t="n">
-        <v>90.30946122296689</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F38" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G38" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H38" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I38" t="n">
-        <v>87.1076127164381</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J38" t="n">
-        <v>228.547717203749</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804919</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050655</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M38" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N38" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O38" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P38" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R38" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X38" t="n">
-        <v>2191.665386213449</v>
+        <v>1722.302631782114</v>
       </c>
       <c r="Y38" t="n">
-        <v>1786.328116168339</v>
+        <v>1722.302631782114</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>974.97332606408</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C39" t="n">
-        <v>857.4674225815847</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D39" t="n">
-        <v>753.6274640968697</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E39" t="n">
-        <v>648.925530369807</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F39" t="n">
-        <v>555.2797000527112</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G39" t="n">
-        <v>462.3230136065753</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H39" t="n">
-        <v>419.5424550638178</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I39" t="n">
-        <v>440.5525759700804</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J39" t="n">
-        <v>521.7354331104923</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K39" t="n">
-        <v>673.1900255964949</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L39" t="n">
-        <v>884.3668287892407</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.945688626853</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.4715630381</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O39" t="n">
-        <v>1625.361514275393</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>1809.134608819573</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>2042.886048700246</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
-        <v>2191.665386213449</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S39" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T39" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U39" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V39" t="n">
-        <v>1603.59194753097</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W39" t="n">
-        <v>1407.070570364187</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X39" t="n">
-        <v>1243.59322413085</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y39" t="n">
-        <v>1103.900335484143</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>617.4397414529384</v>
+        <v>882.5298340045008</v>
       </c>
       <c r="C40" t="n">
-        <v>445.4671783318544</v>
+        <v>710.5572708834168</v>
       </c>
       <c r="D40" t="n">
-        <v>282.1504054586251</v>
+        <v>547.2404980101875</v>
       </c>
       <c r="E40" t="n">
-        <v>115.9421996114787</v>
+        <v>381.032292163041</v>
       </c>
       <c r="F40" t="n">
-        <v>115.9421996114787</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I40" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J40" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>496.3180254984902</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L40" t="n">
-        <v>608.6404166488187</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M40" t="n">
-        <v>1055.400253114256</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N40" t="n">
-        <v>1570.839159777535</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O40" t="n">
-        <v>2053.684035899825</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P40" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q40" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R40" t="n">
-        <v>2185.982504260493</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S40" t="n">
-        <v>2113.210526049023</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T40" t="n">
-        <v>2113.210526049023</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U40" t="n">
-        <v>1833.076246248915</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="V40" t="n">
-        <v>1551.364778856944</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.512375029457</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="X40" t="n">
-        <v>1033.948478475262</v>
+        <v>1269.768713637076</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.605710165004</v>
+        <v>1072.695802716567</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1170.895906818359</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9951768316589</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="D41" t="n">
-        <v>320.7025560166592</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="E41" t="n">
-        <v>320.7025560166592</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F41" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G41" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H41" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I41" t="n">
         <v>87.10761271643844</v>
@@ -7429,34 +7429,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P41" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q41" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R41" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S41" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T41" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U41" t="n">
-        <v>2191.665386213449</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V41" t="n">
-        <v>2191.665386213449</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W41" t="n">
-        <v>1996.081541154998</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="X41" t="n">
-        <v>1996.081541154998</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="Y41" t="n">
-        <v>1590.744271109889</v>
+        <v>1148.115354224523</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>974.9733260640804</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C42" t="n">
-        <v>857.4674225815852</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D42" t="n">
-        <v>753.6274640968702</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E42" t="n">
-        <v>648.9255303698075</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F42" t="n">
-        <v>555.2797000527116</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G42" t="n">
-        <v>462.3230136065757</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H42" t="n">
-        <v>419.5424550638183</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I42" t="n">
-        <v>464.0098818144927</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J42" t="n">
-        <v>640.7512954974895</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K42" t="n">
-        <v>792.2058879834922</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L42" t="n">
-        <v>1003.382691176238</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M42" t="n">
-        <v>1252.96155101385</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N42" t="n">
-        <v>1511.487425425097</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O42" t="n">
-        <v>1744.377376662391</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P42" t="n">
-        <v>1928.150471206571</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2042.886048700246</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R42" t="n">
-        <v>2191.665386213449</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S42" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T42" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U42" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V42" t="n">
-        <v>1603.591947530971</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W42" t="n">
-        <v>1407.070570364188</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X42" t="n">
-        <v>1243.593224130851</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y42" t="n">
-        <v>1103.900335484143</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>854.8318315903725</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C43" t="n">
-        <v>682.8592684692885</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D43" t="n">
-        <v>682.8592684692885</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E43" t="n">
-        <v>516.651062622142</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F43" t="n">
-        <v>344.7892883967024</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G43" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H43" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I43" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J43" t="n">
         <v>165.0575948409233</v>
@@ -7587,7 +7587,7 @@
         <v>1589.554333948619</v>
       </c>
       <c r="P43" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q43" t="n">
         <v>2191.665386213449</v>
@@ -7596,25 +7596,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S43" t="n">
-        <v>2185.982504260494</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T43" t="n">
-        <v>1946.573037954073</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U43" t="n">
-        <v>1666.438758153964</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="V43" t="n">
-        <v>1513.904465166891</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="W43" t="n">
-        <v>1513.904465166891</v>
+        <v>1749.33012992733</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.340568612696</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="Y43" t="n">
-        <v>1044.997800302438</v>
+        <v>1280.423465062877</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2191.665386213449</v>
+        <v>944.964852616833</v>
       </c>
       <c r="C44" t="n">
-        <v>1764.764656226749</v>
+        <v>944.964852616833</v>
       </c>
       <c r="D44" t="n">
-        <v>1574.092294076666</v>
+        <v>944.964852616833</v>
       </c>
       <c r="E44" t="n">
-        <v>1148.115354224523</v>
+        <v>944.964852616833</v>
       </c>
       <c r="F44" t="n">
-        <v>722.9911724139236</v>
+        <v>519.8406708062332</v>
       </c>
       <c r="G44" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H44" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I44" t="n">
-        <v>87.10761271643881</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J44" t="n">
-        <v>228.5477172037499</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M44" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N44" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O44" t="n">
         <v>1667.064768900565</v>
@@ -7669,31 +7669,31 @@
         <v>1918.85421215123</v>
       </c>
       <c r="Q44" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R44" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V44" t="n">
-        <v>2191.665386213449</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="W44" t="n">
-        <v>2191.665386213449</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="X44" t="n">
-        <v>2191.665386213449</v>
+        <v>1364.813216908363</v>
       </c>
       <c r="Y44" t="n">
-        <v>2191.665386213449</v>
+        <v>1364.813216908363</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I45" t="n">
         <v>88.30073447494337</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>753.0585119120394</v>
+        <v>924.9202861374791</v>
       </c>
       <c r="C46" t="n">
-        <v>581.0859487909554</v>
+        <v>752.9477230163951</v>
       </c>
       <c r="D46" t="n">
-        <v>417.7691759177262</v>
+        <v>589.6309501431658</v>
       </c>
       <c r="E46" t="n">
-        <v>251.5609700705797</v>
+        <v>423.4227442960193</v>
       </c>
       <c r="F46" t="n">
         <v>251.5609700705797</v>
@@ -7803,55 +7803,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I46" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J46" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K46" t="n">
-        <v>496.3180254984903</v>
+        <v>381.6345055669486</v>
       </c>
       <c r="L46" t="n">
-        <v>985.0293102399839</v>
+        <v>870.3457903084421</v>
       </c>
       <c r="M46" t="n">
-        <v>1103.986993936472</v>
+        <v>989.3034740049304</v>
       </c>
       <c r="N46" t="n">
-        <v>1221.392977757871</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O46" t="n">
         <v>1589.554333948619</v>
       </c>
       <c r="P46" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q46" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S46" t="n">
-        <v>2037.559238250755</v>
+        <v>2098.254789847906</v>
       </c>
       <c r="T46" t="n">
-        <v>2022.486528197866</v>
+        <v>1858.845323541485</v>
       </c>
       <c r="U46" t="n">
-        <v>1742.352248397758</v>
+        <v>1858.845323541485</v>
       </c>
       <c r="V46" t="n">
-        <v>1460.640781005787</v>
+        <v>1858.845323541485</v>
       </c>
       <c r="W46" t="n">
-        <v>1185.7883771783</v>
+        <v>1583.992919713997</v>
       </c>
       <c r="X46" t="n">
-        <v>943.2244806241051</v>
+        <v>1341.429023159803</v>
       </c>
       <c r="Y46" t="n">
-        <v>943.2244806241051</v>
+        <v>1115.086254849545</v>
       </c>
     </row>
   </sheetData>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>226.7387501736391</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>226.7387501736383</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,19 +8856,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>411.1487880093011</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>265.6755599713748</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>226.7387501736386</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.0445018459503</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9093,19 +9093,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>265.6755599713745</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>37.06058327914857</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>226.7387501736388</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.7387501736391</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>112.0758181128932</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0.8654760472109757</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>96.52379448745958</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>316.7808342020669</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>163.1810923435846</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>120.2180428151488</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>29.63128871313695</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>263.7525528475605</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>226.738750173639</v>
+        <v>226.7387501736386</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>163.1810923435846</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>265.6755599713746</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>226.7387501736386</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>120.2180428151483</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>265.6755599713746</v>
+        <v>243.2165947276861</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>120.2180428151483</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>212.6472786168699</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>279.4117019596231</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.2180428151483</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>265.6755599713746</v>
+        <v>265.675559971375</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>120.2180428151488</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10986,22 +10986,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>331.113285625201</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>265.675559971375</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>96.52379448745945</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>265.6755599713746</v>
+        <v>265.675559971375</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11457,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>133.9384739216973</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>265.6755599713746</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>188.5117959819973</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6089649852995</v>
+        <v>56.06731670724068</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>120.1326653849709</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.626053133425557</v>
+        <v>5.626053133425536</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>95.36252947123447</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U14" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>385.521906010025</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>233.3130105699854</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>43.51580520373744</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>74.26422029683245</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.626053133425557</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>224.2267662732614</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>16.5296071175249</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.8302460968812</v>
@@ -23797,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>57.67371607807253</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>142.2439428588841</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
-        <v>274.1005558094662</v>
+        <v>233.5638348838989</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309219</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T20" t="n">
         <v>209.8302460968812</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>333.2003657816873</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>37.34846567137455</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.7883097027546</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24211,7 +24211,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24220,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>372.8067874752121</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.06632804309219</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
         <v>255.6089649852995</v>
@@ -24268,7 +24268,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>307.9356801757128</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>8.884540764015156</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6838381111991</v>
+        <v>110.2783122218149</v>
       </c>
       <c r="H25" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S25" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>273.1015444736162</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>195.0290908667133</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>11.02357704538881</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833761</v>
+        <v>3.25848763058876</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>139.8668539903952</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.2952834631655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>77.97645277333275</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>71.38780296833761</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>131.6414869356512</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9276620696176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.1005558094662</v>
+        <v>201.8485522884296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.06632804309219</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>101.1805759068753</v>
       </c>
       <c r="H34" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>190.2684820209409</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.36698111769044</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>230.2940560782668</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309219</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>85.1193306431519</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>219.2577905241382</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>17.37383757865229</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>374.8615480287828</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.2657302332918</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.8302460968812</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>80.52082805371181</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>28.97715881585103</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>198.7994295947905</v>
+        <v>235.7329643839059</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V43" t="n">
-        <v>127.8854026608486</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>229.3984873258034</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>230.2940560782673</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>201.1189965916135</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.8302460968812</v>
@@ -25924,13 +25924,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.6838381111991</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>65.71464921460428</v>
       </c>
       <c r="T46" t="n">
-        <v>222.0933886909974</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630969</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>358025.7472630969</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>358025.7472630969</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630971</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>358025.7472630971</v>
+        <v>358025.747263097</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358025.747263097</v>
+        <v>358025.7472630972</v>
       </c>
     </row>
   </sheetData>
@@ -26322,34 +26322,34 @@
         <v>444661.8388447902</v>
       </c>
       <c r="E2" t="n">
+        <v>268756.724479535</v>
+      </c>
+      <c r="F2" t="n">
+        <v>268756.7244795352</v>
+      </c>
+      <c r="G2" t="n">
+        <v>268756.7244795352</v>
+      </c>
+      <c r="H2" t="n">
         <v>268756.7244795351</v>
-      </c>
-      <c r="F2" t="n">
-        <v>268756.724479535</v>
-      </c>
-      <c r="G2" t="n">
-        <v>268756.724479535</v>
-      </c>
-      <c r="H2" t="n">
-        <v>268756.724479535</v>
       </c>
       <c r="I2" t="n">
         <v>268756.7244795351</v>
       </c>
       <c r="J2" t="n">
-        <v>268756.724479535</v>
+        <v>268756.7244795351</v>
       </c>
       <c r="K2" t="n">
         <v>268756.7244795351</v>
       </c>
       <c r="L2" t="n">
-        <v>268756.724479535</v>
+        <v>268756.7244795351</v>
       </c>
       <c r="M2" t="n">
-        <v>268756.724479535</v>
+        <v>268756.7244795351</v>
       </c>
       <c r="N2" t="n">
-        <v>268756.724479535</v>
+        <v>268756.7244795351</v>
       </c>
       <c r="O2" t="n">
         <v>268756.7244795351</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>569272.4739113376</v>
+        <v>569272.4739113378</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>322739.0782821833</v>
       </c>
       <c r="E4" t="n">
-        <v>20363.43874798183</v>
+        <v>20363.43874798182</v>
       </c>
       <c r="F4" t="n">
-        <v>20363.43874798183</v>
+        <v>20363.43874798182</v>
       </c>
       <c r="G4" t="n">
         <v>20363.43874798183</v>
@@ -26441,7 +26441,7 @@
         <v>20363.43874798183</v>
       </c>
       <c r="J4" t="n">
-        <v>20363.43874798183</v>
+        <v>20363.43874798182</v>
       </c>
       <c r="K4" t="n">
         <v>20363.43874798183</v>
@@ -26453,13 +26453,13 @@
         <v>20363.43874798183</v>
       </c>
       <c r="N4" t="n">
-        <v>20363.43874798184</v>
+        <v>20363.43874798182</v>
       </c>
       <c r="O4" t="n">
-        <v>20363.43874798182</v>
+        <v>20363.43874798183</v>
       </c>
       <c r="P4" t="n">
-        <v>20363.43874798182</v>
+        <v>20363.43874798183</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781077</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="H5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="I5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="K5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="L5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="M5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="N5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="O5" t="n">
         <v>44321.17942781076</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88295.16056260705</v>
+        <v>88273.44692111063</v>
       </c>
       <c r="C6" t="n">
-        <v>88295.16056260705</v>
+        <v>88273.44692111063</v>
       </c>
       <c r="D6" t="n">
-        <v>88295.16056260694</v>
+        <v>88273.44692111058</v>
       </c>
       <c r="E6" t="n">
-        <v>-365200.3676075951</v>
+        <v>-365789.5171018828</v>
       </c>
       <c r="F6" t="n">
-        <v>204072.1063037424</v>
+        <v>203482.9568094553</v>
       </c>
       <c r="G6" t="n">
-        <v>204072.1063037424</v>
+        <v>203482.9568094551</v>
       </c>
       <c r="H6" t="n">
-        <v>204072.1063037424</v>
+        <v>203482.956809455</v>
       </c>
       <c r="I6" t="n">
-        <v>204072.1063037425</v>
+        <v>203482.9568094551</v>
       </c>
       <c r="J6" t="n">
-        <v>204072.1063037424</v>
+        <v>203482.956809455</v>
       </c>
       <c r="K6" t="n">
-        <v>204072.1063037425</v>
+        <v>203482.9568094551</v>
       </c>
       <c r="L6" t="n">
-        <v>204072.1063037424</v>
+        <v>203482.956809455</v>
       </c>
       <c r="M6" t="n">
-        <v>67529.16107725838</v>
+        <v>66940.01158297088</v>
       </c>
       <c r="N6" t="n">
-        <v>204072.1063037424</v>
+        <v>203482.956809455</v>
       </c>
       <c r="O6" t="n">
-        <v>204072.1063037425</v>
+        <v>203482.956809455</v>
       </c>
       <c r="P6" t="n">
-        <v>204072.1063037425</v>
+        <v>203482.956809455</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470798</v>
       </c>
       <c r="F3" t="n">
         <v>504.9479613470796</v>
       </c>
       <c r="G3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="H3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="I3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="J3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="K3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="L3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="M3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="N3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="O3" t="n">
         <v>504.9479613470796</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="F4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="G4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="H4" t="n">
-        <v>547.916346553362</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="I4" t="n">
-        <v>547.916346553362</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="J4" t="n">
-        <v>547.916346553362</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="K4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="L4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="N4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="O4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="P4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470798</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.029941553154087</v>
+        <v>2.029941553154088</v>
       </c>
       <c r="H11" t="n">
-        <v>20.7891389312393</v>
+        <v>20.78913893123931</v>
       </c>
       <c r="I11" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797306</v>
       </c>
       <c r="J11" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K11" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L11" t="n">
-        <v>320.3400016493638</v>
+        <v>320.340001649364</v>
       </c>
       <c r="M11" t="n">
-        <v>356.4399747452678</v>
+        <v>356.439974745268</v>
       </c>
       <c r="N11" t="n">
-        <v>362.2075461831669</v>
+        <v>362.2075461831671</v>
       </c>
       <c r="O11" t="n">
-        <v>342.0223148639909</v>
+        <v>342.0223148639911</v>
       </c>
       <c r="P11" t="n">
-        <v>291.9081327704994</v>
+        <v>291.9081327704995</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981687</v>
       </c>
       <c r="R11" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S11" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249883</v>
       </c>
       <c r="T11" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H12" t="n">
-        <v>10.48957934798367</v>
+        <v>10.48957934798368</v>
       </c>
       <c r="I12" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976016</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K12" t="n">
-        <v>175.3836706878814</v>
+        <v>175.3836706878815</v>
       </c>
       <c r="L12" t="n">
-        <v>235.8249889291243</v>
+        <v>235.8249889291244</v>
       </c>
       <c r="M12" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935895</v>
       </c>
       <c r="O12" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093872</v>
       </c>
       <c r="P12" t="n">
-        <v>207.4002296332939</v>
+        <v>207.400229633294</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.6415610098623</v>
+        <v>138.6415610098624</v>
       </c>
       <c r="R12" t="n">
-        <v>67.43437113989869</v>
+        <v>67.43437113989872</v>
       </c>
       <c r="S12" t="n">
-        <v>20.17410015381963</v>
+        <v>20.17410015381964</v>
       </c>
       <c r="T12" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678926</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.07145490019062453</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.9105618975111274</v>
       </c>
       <c r="H13" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417121</v>
       </c>
       <c r="I13" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J13" t="n">
-        <v>64.37672615403667</v>
+        <v>64.3767261540367</v>
       </c>
       <c r="K13" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L13" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M13" t="n">
-        <v>142.7347163525851</v>
+        <v>142.7347163525852</v>
       </c>
       <c r="N13" t="n">
         <v>139.3408038254983</v>
@@ -31937,22 +31937,22 @@
         <v>128.7037852954819</v>
       </c>
       <c r="P13" t="n">
-        <v>110.1283225862548</v>
+        <v>110.1283225862549</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340905</v>
       </c>
       <c r="R13" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627305</v>
       </c>
       <c r="S13" t="n">
-        <v>15.86861052298936</v>
+        <v>15.86861052298937</v>
       </c>
       <c r="T13" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002089</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.0496670125915161</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,13 +31995,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I14" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J14" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K14" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L14" t="n">
         <v>320.3400016493639</v>
@@ -32010,7 +32010,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N14" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O14" t="n">
         <v>342.022314863991</v>
@@ -32022,7 +32022,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R14" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S14" t="n">
         <v>46.25729314249881</v>
@@ -32031,7 +32031,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I15" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J15" t="n">
         <v>102.6140003337495</v>
@@ -32086,10 +32086,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M15" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N15" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O15" t="n">
         <v>258.4142647093871</v>
@@ -32101,13 +32101,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R15" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S15" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T15" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U15" t="n">
         <v>0.0714549001906245</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H16" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I16" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J16" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K16" t="n">
         <v>105.7907368199291</v>
@@ -32177,16 +32177,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R16" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S16" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T16" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U16" t="n">
         <v>0.04966701259151608</v>
@@ -32235,22 +32235,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J17" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K17" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M17" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N17" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O17" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P17" t="n">
         <v>291.9081327704994</v>
@@ -32262,10 +32262,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T17" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U17" t="n">
         <v>0.1623953242523269</v>
@@ -32314,7 +32314,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J18" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K18" t="n">
         <v>175.3836706878814</v>
@@ -32329,7 +32329,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P18" t="n">
         <v>207.4002296332939</v>
@@ -32347,7 +32347,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I19" t="n">
         <v>27.38307960878917</v>
@@ -32399,7 +32399,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L19" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M19" t="n">
         <v>142.7347163525851</v>
@@ -32426,7 +32426,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,25 +32469,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I20" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J20" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K20" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L20" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M20" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N20" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O20" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P20" t="n">
         <v>291.9081327704994</v>
@@ -32496,16 +32496,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R20" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S20" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T20" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I21" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J21" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K21" t="n">
         <v>175.3836706878814</v>
@@ -32560,13 +32560,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M21" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N21" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O21" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P21" t="n">
         <v>207.4002296332939</v>
@@ -32575,16 +32575,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R21" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S21" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T21" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H22" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I22" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J22" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K22" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L22" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M22" t="n">
         <v>142.7347163525851</v>
@@ -32651,19 +32651,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R22" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S22" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T22" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,25 +32706,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I23" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J23" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K23" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L23" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M23" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N23" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O23" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P23" t="n">
         <v>291.9081327704994</v>
@@ -32733,16 +32733,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R23" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S23" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T23" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I24" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J24" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K24" t="n">
         <v>175.3836706878814</v>
@@ -32797,13 +32797,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M24" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N24" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O24" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P24" t="n">
         <v>207.4002296332939</v>
@@ -32812,16 +32812,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R24" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S24" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T24" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H25" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I25" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J25" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K25" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L25" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M25" t="n">
         <v>142.7347163525851</v>
@@ -32888,19 +32888,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R25" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S25" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T25" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,25 +32943,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I26" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J26" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K26" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L26" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M26" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N26" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O26" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P26" t="n">
         <v>291.9081327704994</v>
@@ -32970,16 +32970,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R26" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S26" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T26" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,10 +33022,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I27" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J27" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K27" t="n">
         <v>175.3836706878814</v>
@@ -33034,13 +33034,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M27" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N27" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O27" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P27" t="n">
         <v>207.4002296332939</v>
@@ -33049,16 +33049,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R27" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S27" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T27" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H28" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I28" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J28" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K28" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L28" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M28" t="n">
         <v>142.7347163525851</v>
@@ -33125,19 +33125,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R28" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S28" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T28" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,25 +33180,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I29" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J29" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K29" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L29" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M29" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N29" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O29" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P29" t="n">
         <v>291.9081327704994</v>
@@ -33207,16 +33207,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R29" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S29" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T29" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I30" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J30" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K30" t="n">
         <v>175.3836706878814</v>
@@ -33271,13 +33271,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M30" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N30" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O30" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P30" t="n">
         <v>207.4002296332939</v>
@@ -33286,16 +33286,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R30" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S30" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T30" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H31" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I31" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J31" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K31" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L31" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M31" t="n">
         <v>142.7347163525851</v>
@@ -33362,19 +33362,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R31" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S31" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T31" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,25 +33417,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I32" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J32" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K32" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L32" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M32" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N32" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O32" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P32" t="n">
         <v>291.9081327704994</v>
@@ -33444,16 +33444,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R32" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S32" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T32" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I33" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J33" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K33" t="n">
         <v>175.3836706878814</v>
@@ -33508,13 +33508,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M33" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N33" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O33" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P33" t="n">
         <v>207.4002296332939</v>
@@ -33523,16 +33523,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R33" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S33" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T33" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H34" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I34" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J34" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K34" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L34" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M34" t="n">
         <v>142.7347163525851</v>
@@ -33599,19 +33599,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R34" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S34" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T34" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,25 +33654,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I35" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K35" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L35" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M35" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N35" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O35" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P35" t="n">
         <v>291.9081327704994</v>
@@ -33681,16 +33681,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R35" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S35" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T35" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,10 +33733,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I36" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J36" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K36" t="n">
         <v>175.3836706878814</v>
@@ -33745,13 +33745,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M36" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N36" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O36" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P36" t="n">
         <v>207.4002296332939</v>
@@ -33760,16 +33760,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R36" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S36" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T36" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H37" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I37" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J37" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K37" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L37" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M37" t="n">
         <v>142.7347163525851</v>
@@ -33836,19 +33836,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R37" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S37" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T37" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,25 +33891,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I38" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K38" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L38" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M38" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N38" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O38" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P38" t="n">
         <v>291.9081327704994</v>
@@ -33918,16 +33918,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R38" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S38" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T38" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,10 +33970,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I39" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J39" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K39" t="n">
         <v>175.3836706878814</v>
@@ -33982,13 +33982,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M39" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N39" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O39" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P39" t="n">
         <v>207.4002296332939</v>
@@ -33997,16 +33997,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R39" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S39" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T39" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H40" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I40" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J40" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K40" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L40" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M40" t="n">
         <v>142.7347163525851</v>
@@ -34073,19 +34073,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R40" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S40" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T40" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I44" t="n">
-        <v>78.25932172797343</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J44" t="n">
         <v>172.2887518970119</v>
@@ -34389,7 +34389,7 @@
         <v>291.9081327704994</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981693</v>
       </c>
       <c r="R44" t="n">
         <v>127.5133160883155</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400956</v>
       </c>
       <c r="J11" t="n">
-        <v>142.8687924114253</v>
+        <v>142.8687924114254</v>
       </c>
       <c r="K11" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L11" t="n">
-        <v>282.0279592167409</v>
+        <v>282.0279592167411</v>
       </c>
       <c r="M11" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458362</v>
       </c>
       <c r="N11" t="n">
-        <v>324.9279233487209</v>
+        <v>324.9279233487211</v>
       </c>
       <c r="O11" t="n">
-        <v>304.6313555079668</v>
+        <v>304.631355507967</v>
       </c>
       <c r="P11" t="n">
-        <v>254.3327709602681</v>
+        <v>254.3327709602682</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R11" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351914</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.22234434976014</v>
+        <v>21.22234434976016</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041611</v>
+        <v>82.00288600041617</v>
       </c>
       <c r="K12" t="n">
-        <v>152.9844368545481</v>
+        <v>152.9844368545482</v>
       </c>
       <c r="L12" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148949</v>
       </c>
       <c r="M12" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218305</v>
       </c>
       <c r="N12" t="n">
-        <v>261.1372468800477</v>
+        <v>261.1372468800478</v>
       </c>
       <c r="O12" t="n">
-        <v>461.9811251608039</v>
+        <v>235.2423749871649</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.8945227208838</v>
+        <v>342.6332728945222</v>
       </c>
       <c r="R12" t="n">
-        <v>43.76145174575454</v>
+        <v>43.76145174575457</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
-        <v>334.606495613704</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L13" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M13" t="n">
-        <v>531.3080644704004</v>
+        <v>120.1592764610994</v>
       </c>
       <c r="N13" t="n">
-        <v>520.6453602659385</v>
+        <v>384.2674628212728</v>
       </c>
       <c r="O13" t="n">
-        <v>106.2045977970574</v>
+        <v>106.2045977970575</v>
       </c>
       <c r="P13" t="n">
-        <v>87.74752192826831</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J14" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K14" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L14" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M14" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N14" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O14" t="n">
         <v>304.6313555079669</v>
@@ -35667,7 +35667,7 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R14" t="n">
         <v>92.48066619351908</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.91659267744888</v>
+        <v>21.22234434976015</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041613</v>
+        <v>308.7416361740547</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L15" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M15" t="n">
         <v>252.0998584218304</v>
@@ -35743,13 +35743,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q15" t="n">
-        <v>318.9390245668341</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R15" t="n">
-        <v>43.76145174575454</v>
+        <v>43.76145174575456</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,19 +35813,19 @@
         <v>493.647762365145</v>
       </c>
       <c r="M16" t="n">
-        <v>385.8348364324738</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N16" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O16" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P16" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.5301020025625</v>
+        <v>88.68816267777265</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L17" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M17" t="n">
         <v>319.008711845836</v>
@@ -35898,7 +35898,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O17" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P17" t="n">
         <v>254.3327709602681</v>
@@ -35907,7 +35907,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>21.22234434976014</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041611</v>
+        <v>308.741636174055</v>
       </c>
       <c r="K18" t="n">
         <v>152.9844368545481</v>
@@ -35971,7 +35971,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N18" t="n">
         <v>261.1372468800477</v>
@@ -35983,7 +35983,7 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q18" t="n">
-        <v>342.6332728945229</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
         <v>43.76145174575454</v>
@@ -36044,25 +36044,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K19" t="n">
-        <v>84.82608236721708</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L19" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M19" t="n">
-        <v>232.2350945739925</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N19" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O19" t="n">
-        <v>487.7220970932224</v>
+        <v>107.0700738442684</v>
       </c>
       <c r="P19" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J20" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K20" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L20" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M20" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N20" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O20" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P20" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R20" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.91659267744886</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J21" t="n">
-        <v>178.5266804878757</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K21" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M21" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N21" t="n">
         <v>261.1372468800477</v>
@@ -36217,13 +36217,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P21" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q21" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R21" t="n">
-        <v>150.2821591042452</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K22" t="n">
-        <v>84.82608236721708</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L22" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M22" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N22" t="n">
-        <v>520.6453602659385</v>
+        <v>435.3727370519648</v>
       </c>
       <c r="O22" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970575</v>
       </c>
       <c r="P22" t="n">
-        <v>250.9286142718529</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.62757939862406</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J23" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K23" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L23" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M23" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N23" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O23" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P23" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351853</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J24" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K24" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L24" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M24" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N24" t="n">
         <v>261.1372468800477</v>
@@ -36454,13 +36454,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P24" t="n">
-        <v>305.847431243614</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q24" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>150.2821591042452</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.73997017013481</v>
+        <v>73.37125888327178</v>
       </c>
       <c r="K25" t="n">
-        <v>84.82608236721708</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L25" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M25" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N25" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O25" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P25" t="n">
-        <v>351.5000747758289</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.62757939862406</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J26" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K26" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L26" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M26" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N26" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O26" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P26" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R26" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976014</v>
+        <v>21.22234434976015</v>
       </c>
       <c r="J27" t="n">
-        <v>308.7416361740551</v>
+        <v>308.7416361740547</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L27" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M27" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N27" t="n">
         <v>261.1372468800477</v>
@@ -36691,13 +36691,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q27" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575454</v>
+        <v>43.76145174575456</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K28" t="n">
-        <v>84.82608236721708</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L28" t="n">
-        <v>276.6380531014922</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M28" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N28" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O28" t="n">
-        <v>487.7220970932224</v>
+        <v>371.880157768432</v>
       </c>
       <c r="P28" t="n">
-        <v>87.74752192826831</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J29" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K29" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L29" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M29" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N29" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O29" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P29" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R29" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976014</v>
+        <v>21.22234434976015</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041611</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K30" t="n">
-        <v>152.9844368545481</v>
+        <v>379.7231870281867</v>
       </c>
       <c r="L30" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M30" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N30" t="n">
         <v>261.1372468800477</v>
@@ -36928,13 +36928,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P30" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.1125655360321</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
-        <v>150.2821591042452</v>
+        <v>43.76145174575456</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K31" t="n">
-        <v>334.606495613704</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L31" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M31" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N31" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>371.880157768432</v>
+        <v>349.4211925247436</v>
       </c>
       <c r="P31" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J32" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K32" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L32" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M32" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N32" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O32" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P32" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J33" t="n">
-        <v>202.2209288155644</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M33" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N33" t="n">
         <v>261.1372468800477</v>
@@ -37165,13 +37165,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P33" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q33" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R33" t="n">
-        <v>150.2821591042452</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.73997017013481</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K34" t="n">
-        <v>84.82608236721708</v>
+        <v>297.473360984087</v>
       </c>
       <c r="L34" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M34" t="n">
-        <v>399.5709784207224</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N34" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O34" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P34" t="n">
-        <v>87.74752192826831</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J35" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K35" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L35" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M35" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N35" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O35" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P35" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R35" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>82.00288600041611</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L36" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M36" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N36" t="n">
         <v>261.1372468800477</v>
@@ -37402,13 +37402,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P36" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.1125655360321</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R36" t="n">
-        <v>150.2821591042452</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K37" t="n">
-        <v>334.606495613704</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L37" t="n">
         <v>493.647762365145</v>
@@ -37478,7 +37478,7 @@
         <v>118.5919028498979</v>
       </c>
       <c r="O37" t="n">
-        <v>371.880157768432</v>
+        <v>371.8801577684325</v>
       </c>
       <c r="P37" t="n">
         <v>403.6628800831245</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J38" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K38" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L38" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M38" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N38" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O38" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P38" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J39" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L39" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M39" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N39" t="n">
         <v>261.1372468800477</v>
@@ -37639,13 +37639,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P39" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.1125655360326</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>150.2821591042452</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
-        <v>334.606495613704</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M40" t="n">
-        <v>451.2725620863003</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N40" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O40" t="n">
-        <v>487.7220970932224</v>
+        <v>371.8801577684325</v>
       </c>
       <c r="P40" t="n">
-        <v>87.74752192826831</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J42" t="n">
-        <v>178.5266804878756</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
@@ -37952,7 +37952,7 @@
         <v>118.5919028498979</v>
       </c>
       <c r="O43" t="n">
-        <v>371.880157768432</v>
+        <v>371.8801577684325</v>
       </c>
       <c r="P43" t="n">
         <v>403.6628800831245</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.71141918400993</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J44" t="n">
         <v>142.8687924114253</v>
@@ -38037,7 +38037,7 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935713</v>
       </c>
       <c r="R44" t="n">
         <v>92.48066619351908</v>
@@ -38177,7 +38177,7 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K46" t="n">
-        <v>334.6064956137041</v>
+        <v>218.7645562889144</v>
       </c>
       <c r="L46" t="n">
         <v>493.647762365145</v>
@@ -38189,7 +38189,7 @@
         <v>118.5919028498979</v>
       </c>
       <c r="O46" t="n">
-        <v>371.880157768432</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P46" t="n">
         <v>403.6628800831245</v>
